--- a/Ejercicio_Indicadores_Andres.xlsx
+++ b/Ejercicio_Indicadores_Andres.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GeoApli\7sem\LGA_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GeoApli\7sem\LGA_6\LGAVI-2024-1-AHA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2748AB7E-09C7-4F7A-B7A2-0795E19E3239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC3368E-C6E1-4D70-B7D2-5DE8E2052E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FA61E732-0C33-48F3-916E-394397EC4380}"/>
   </bookViews>
@@ -274,11 +274,11 @@
     <t>Puntos de consumo y si forma parte de cadenas de suministros</t>
   </si>
   <si>
-    <t>número de procesos automatizados</t>
-  </si>
-  <si>
     <t xml:space="preserve">Caracteristicas de 
 los usuarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -807,8 +807,8 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>25</v>
@@ -1452,12 +1452,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>52</v>
